--- a/python_Proyect/Resultados/Esfuerzo_Muestreo.xlsx
+++ b/python_Proyect/Resultados/Esfuerzo_Muestreo.xlsx
@@ -467,7 +467,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="45" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>1683</v>
+        <v>1726</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>2799</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -576,19 +576,19 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>13.333</v>
+        <v>14.167</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>8.1</v>
+        <v>8.333</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>15.583</v>
+        <v>15.981</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>9.141</v>
+        <v>9.577</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>12.276</v>
+        <v>12.689</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -704,13 +704,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -762,13 +762,13 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>1.111</v>
+        <v>1.444</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>1</v>
+        <v>1.231</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Esfuerzo_Muestreo.xlsx
+++ b/python_Proyect/Resultados/Esfuerzo_Muestreo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
